--- a/football_platform/football_platform/media/files/passingevents.xlsx
+++ b/football_platform/football_platform/media/files/passingevents.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7280"/>
+    <workbookView windowWidth="14630" windowHeight="7280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
     <t>Opponent1_F4</t>
   </si>
   <si>
-    <t>Huskies_M5</t>
+    <t>Huskies_F5</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:L567"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="P6:Q6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
